--- a/natmiOut/YoungD2/LR-pairs_lrc2p/Tgfb1-Acvrl1.xlsx
+++ b/natmiOut/YoungD2/LR-pairs_lrc2p/Tgfb1-Acvrl1.xlsx
@@ -537,52 +537,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>26.9993424676049</v>
+        <v>32.52516566666667</v>
       </c>
       <c r="H2">
-        <v>26.9993424676049</v>
+        <v>97.575497</v>
       </c>
       <c r="I2">
-        <v>0.05602771039457778</v>
+        <v>0.06370711489344116</v>
       </c>
       <c r="J2">
-        <v>0.05602771039457778</v>
+        <v>0.06370711489344116</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>16.0520702050038</v>
+        <v>17.792572</v>
       </c>
       <c r="N2">
-        <v>16.0520702050038</v>
+        <v>53.377716</v>
       </c>
       <c r="O2">
-        <v>0.3274990921985305</v>
+        <v>0.3427330624192282</v>
       </c>
       <c r="P2">
-        <v>0.3274990921985305</v>
+        <v>0.3427330624192283</v>
       </c>
       <c r="Q2">
-        <v>433.3953407789344</v>
+        <v>578.7063519360946</v>
       </c>
       <c r="R2">
-        <v>433.3953407789344</v>
+        <v>5208.357167424851</v>
       </c>
       <c r="S2">
-        <v>0.01834902429218639</v>
+        <v>0.02183453458532272</v>
       </c>
       <c r="T2">
-        <v>0.01834902429218639</v>
+        <v>0.02183453458532272</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,52 +599,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>26.9993424676049</v>
+        <v>32.52516566666667</v>
       </c>
       <c r="H3">
-        <v>26.9993424676049</v>
+        <v>97.575497</v>
       </c>
       <c r="I3">
-        <v>0.05602771039457778</v>
+        <v>0.06370711489344116</v>
       </c>
       <c r="J3">
-        <v>0.05602771039457778</v>
+        <v>0.06370711489344116</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>13.6330267067207</v>
+        <v>13.865696</v>
       </c>
       <c r="N3">
-        <v>13.6330267067207</v>
+        <v>41.597088</v>
       </c>
       <c r="O3">
-        <v>0.2781450500370705</v>
+        <v>0.2670908091676708</v>
       </c>
       <c r="P3">
-        <v>0.2781450500370705</v>
+        <v>0.2670908091676709</v>
       </c>
       <c r="Q3">
-        <v>368.082756924756</v>
+        <v>450.9840594836373</v>
       </c>
       <c r="R3">
-        <v>368.082756924756</v>
+        <v>4058.856535352736</v>
       </c>
       <c r="S3">
-        <v>0.01558383031116233</v>
+        <v>0.01701558486662697</v>
       </c>
       <c r="T3">
-        <v>0.01558383031116233</v>
+        <v>0.01701558486662698</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,52 +661,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>26.9993424676049</v>
+        <v>32.52516566666667</v>
       </c>
       <c r="H4">
-        <v>26.9993424676049</v>
+        <v>97.575497</v>
       </c>
       <c r="I4">
-        <v>0.05602771039457778</v>
+        <v>0.06370711489344116</v>
       </c>
       <c r="J4">
-        <v>0.05602771039457778</v>
+        <v>0.06370711489344116</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>6.44220840310087</v>
+        <v>6.60203</v>
       </c>
       <c r="N4">
-        <v>6.44220840310087</v>
+        <v>19.80609</v>
       </c>
       <c r="O4">
-        <v>0.1314358445250009</v>
+        <v>0.1271729551007925</v>
       </c>
       <c r="P4">
-        <v>0.1314358445250009</v>
+        <v>0.1271729551007925</v>
       </c>
       <c r="Q4">
-        <v>173.9353909230025</v>
+        <v>214.7321194863033</v>
       </c>
       <c r="R4">
-        <v>173.9353909230025</v>
+        <v>1932.58907537673</v>
       </c>
       <c r="S4">
-        <v>0.007364049432513503</v>
+        <v>0.008101822061944619</v>
       </c>
       <c r="T4">
-        <v>0.007364049432513503</v>
+        <v>0.008101822061944621</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,52 +723,52 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>26.9993424676049</v>
+        <v>32.52516566666667</v>
       </c>
       <c r="H5">
-        <v>26.9993424676049</v>
+        <v>97.575497</v>
       </c>
       <c r="I5">
-        <v>0.05602771039457778</v>
+        <v>0.06370711489344116</v>
       </c>
       <c r="J5">
-        <v>0.05602771039457778</v>
+        <v>0.06370711489344116</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>9.45329387101008</v>
+        <v>9.866406666666666</v>
       </c>
       <c r="N5">
-        <v>9.45329387101008</v>
+        <v>29.59922</v>
       </c>
       <c r="O5">
-        <v>0.1928689023598125</v>
+        <v>0.190053679251103</v>
       </c>
       <c r="P5">
-        <v>0.1928689023598125</v>
+        <v>0.190053679251103</v>
       </c>
       <c r="Q5">
-        <v>255.2327186703116</v>
+        <v>320.9065113680377</v>
       </c>
       <c r="R5">
-        <v>255.2327186703116</v>
+        <v>2888.15860231234</v>
       </c>
       <c r="S5">
-        <v>0.01080600300553567</v>
+        <v>0.01210777157997123</v>
       </c>
       <c r="T5">
-        <v>0.01080600300553567</v>
+        <v>0.01210777157997124</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -785,52 +785,52 @@
         <v>24</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>26.9993424676049</v>
+        <v>32.52516566666667</v>
       </c>
       <c r="H6">
-        <v>26.9993424676049</v>
+        <v>97.575497</v>
       </c>
       <c r="I6">
-        <v>0.05602771039457778</v>
+        <v>0.06370711489344116</v>
       </c>
       <c r="J6">
-        <v>0.05602771039457778</v>
+        <v>0.06370711489344116</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>1.86459536058671</v>
+        <v>1.916929</v>
       </c>
       <c r="N6">
-        <v>1.86459536058671</v>
+        <v>5.750787</v>
       </c>
       <c r="O6">
-        <v>0.03804202698536568</v>
+        <v>0.03692523748731935</v>
       </c>
       <c r="P6">
-        <v>0.03804202698536568</v>
+        <v>0.03692523748731937</v>
       </c>
       <c r="Q6">
-        <v>50.34284870398783</v>
+        <v>62.34843329623767</v>
       </c>
       <c r="R6">
-        <v>50.34284870398783</v>
+        <v>561.1358996661389</v>
       </c>
       <c r="S6">
-        <v>0.002131407670758782</v>
+        <v>0.002352400347072255</v>
       </c>
       <c r="T6">
-        <v>0.002131407670758782</v>
+        <v>0.002352400347072256</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -847,52 +847,52 @@
         <v>25</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>26.9993424676049</v>
+        <v>32.52516566666667</v>
       </c>
       <c r="H7">
-        <v>26.9993424676049</v>
+        <v>97.575497</v>
       </c>
       <c r="I7">
-        <v>0.05602771039457778</v>
+        <v>0.06370711489344116</v>
       </c>
       <c r="J7">
-        <v>0.05602771039457778</v>
+        <v>0.06370711489344116</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>1.5688961408064</v>
+        <v>1.870155666666667</v>
       </c>
       <c r="N7">
-        <v>1.5688961408064</v>
+        <v>5.610467</v>
       </c>
       <c r="O7">
-        <v>0.03200908389421987</v>
+        <v>0.036024256573886</v>
       </c>
       <c r="P7">
-        <v>0.03200908389421987</v>
+        <v>0.03602425657388601</v>
       </c>
       <c r="Q7">
-        <v>42.35916420173567</v>
+        <v>60.82712288078877</v>
       </c>
       <c r="R7">
-        <v>42.35916420173567</v>
+        <v>547.444105927099</v>
       </c>
       <c r="S7">
-        <v>0.001793395682421095</v>
+        <v>0.002295001452503359</v>
       </c>
       <c r="T7">
-        <v>0.001793395682421095</v>
+        <v>0.002295001452503359</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -909,52 +909,52 @@
         <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>12.0154433058358</v>
+        <v>12.155757</v>
       </c>
       <c r="H8">
-        <v>12.0154433058358</v>
+        <v>36.467271</v>
       </c>
       <c r="I8">
-        <v>0.02493385824523583</v>
+        <v>0.02380950848190151</v>
       </c>
       <c r="J8">
-        <v>0.02493385824523583</v>
+        <v>0.02380950848190151</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>16.0520702050038</v>
+        <v>17.792572</v>
       </c>
       <c r="N8">
-        <v>16.0520702050038</v>
+        <v>53.377716</v>
       </c>
       <c r="O8">
-        <v>0.3274990921985305</v>
+        <v>0.3427330624192282</v>
       </c>
       <c r="P8">
-        <v>0.3274990921985305</v>
+        <v>0.3427330624192283</v>
       </c>
       <c r="Q8">
-        <v>192.8727394895192</v>
+        <v>216.282181637004</v>
       </c>
       <c r="R8">
-        <v>192.8727394895192</v>
+        <v>1946.539634733036</v>
       </c>
       <c r="S8">
-        <v>0.008165815940321579</v>
+        <v>0.008160305756698695</v>
       </c>
       <c r="T8">
-        <v>0.008165815940321579</v>
+        <v>0.008160305756698695</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -971,52 +971,52 @@
         <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>12.0154433058358</v>
+        <v>12.155757</v>
       </c>
       <c r="H9">
-        <v>12.0154433058358</v>
+        <v>36.467271</v>
       </c>
       <c r="I9">
-        <v>0.02493385824523583</v>
+        <v>0.02380950848190151</v>
       </c>
       <c r="J9">
-        <v>0.02493385824523583</v>
+        <v>0.02380950848190151</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>13.6330267067207</v>
+        <v>13.865696</v>
       </c>
       <c r="N9">
-        <v>13.6330267067207</v>
+        <v>41.597088</v>
       </c>
       <c r="O9">
-        <v>0.2781450500370705</v>
+        <v>0.2670908091676708</v>
       </c>
       <c r="P9">
-        <v>0.2781450500370705</v>
+        <v>0.2670908091676709</v>
       </c>
       <c r="Q9">
-        <v>163.8068594815479</v>
+        <v>168.548031211872</v>
       </c>
       <c r="R9">
-        <v>163.8068594815479</v>
+        <v>1516.932280906848</v>
       </c>
       <c r="S9">
-        <v>0.006935229249238345</v>
+        <v>0.006359300886315596</v>
       </c>
       <c r="T9">
-        <v>0.006935229249238345</v>
+        <v>0.006359300886315596</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,52 +1033,52 @@
         <v>22</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>12.0154433058358</v>
+        <v>12.155757</v>
       </c>
       <c r="H10">
-        <v>12.0154433058358</v>
+        <v>36.467271</v>
       </c>
       <c r="I10">
-        <v>0.02493385824523583</v>
+        <v>0.02380950848190151</v>
       </c>
       <c r="J10">
-        <v>0.02493385824523583</v>
+        <v>0.02380950848190151</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>6.44220840310087</v>
+        <v>6.60203</v>
       </c>
       <c r="N10">
-        <v>6.44220840310087</v>
+        <v>19.80609</v>
       </c>
       <c r="O10">
-        <v>0.1314358445250009</v>
+        <v>0.1271729551007925</v>
       </c>
       <c r="P10">
-        <v>0.1314358445250009</v>
+        <v>0.1271729551007925</v>
       </c>
       <c r="Q10">
-        <v>77.40598983183749</v>
+        <v>80.25267238671</v>
       </c>
       <c r="R10">
-        <v>77.40598983183749</v>
+        <v>722.2740514803901</v>
       </c>
       <c r="S10">
-        <v>0.00327720271572923</v>
+        <v>0.003027925553140798</v>
       </c>
       <c r="T10">
-        <v>0.00327720271572923</v>
+        <v>0.003027925553140799</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,52 +1095,52 @@
         <v>23</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>12.0154433058358</v>
+        <v>12.155757</v>
       </c>
       <c r="H11">
-        <v>12.0154433058358</v>
+        <v>36.467271</v>
       </c>
       <c r="I11">
-        <v>0.02493385824523583</v>
+        <v>0.02380950848190151</v>
       </c>
       <c r="J11">
-        <v>0.02493385824523583</v>
+        <v>0.02380950848190151</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>9.45329387101008</v>
+        <v>9.866406666666666</v>
       </c>
       <c r="N11">
-        <v>9.45329387101008</v>
+        <v>29.59922</v>
       </c>
       <c r="O11">
-        <v>0.1928689023598125</v>
+        <v>0.190053679251103</v>
       </c>
       <c r="P11">
-        <v>0.1928689023598125</v>
+        <v>0.190053679251103</v>
       </c>
       <c r="Q11">
-        <v>113.5855165605267</v>
+        <v>119.93364190318</v>
       </c>
       <c r="R11">
-        <v>113.5855165605267</v>
+        <v>1079.40277712862</v>
       </c>
       <c r="S11">
-        <v>0.004808965871353796</v>
+        <v>0.004525084688145725</v>
       </c>
       <c r="T11">
-        <v>0.004808965871353796</v>
+        <v>0.004525084688145727</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,52 +1157,52 @@
         <v>24</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>12.0154433058358</v>
+        <v>12.155757</v>
       </c>
       <c r="H12">
-        <v>12.0154433058358</v>
+        <v>36.467271</v>
       </c>
       <c r="I12">
-        <v>0.02493385824523583</v>
+        <v>0.02380950848190151</v>
       </c>
       <c r="J12">
-        <v>0.02493385824523583</v>
+        <v>0.02380950848190151</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>1.86459536058671</v>
+        <v>1.916929</v>
       </c>
       <c r="N12">
-        <v>1.86459536058671</v>
+        <v>5.750787</v>
       </c>
       <c r="O12">
-        <v>0.03804202698536568</v>
+        <v>0.03692523748731935</v>
       </c>
       <c r="P12">
-        <v>0.03804202698536568</v>
+        <v>0.03692523748731937</v>
       </c>
       <c r="Q12">
-        <v>22.40393984345408</v>
+        <v>23.301723110253</v>
       </c>
       <c r="R12">
-        <v>22.40393984345408</v>
+        <v>209.715507992277</v>
       </c>
       <c r="S12">
-        <v>0.0009485345082145444</v>
+        <v>0.0008791717551505576</v>
       </c>
       <c r="T12">
-        <v>0.0009485345082145444</v>
+        <v>0.000879171755150558</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,52 +1219,52 @@
         <v>25</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>12.0154433058358</v>
+        <v>12.155757</v>
       </c>
       <c r="H13">
-        <v>12.0154433058358</v>
+        <v>36.467271</v>
       </c>
       <c r="I13">
-        <v>0.02493385824523583</v>
+        <v>0.02380950848190151</v>
       </c>
       <c r="J13">
-        <v>0.02493385824523583</v>
+        <v>0.02380950848190151</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>1.5688961408064</v>
+        <v>1.870155666666667</v>
       </c>
       <c r="N13">
-        <v>1.5688961408064</v>
+        <v>5.610467</v>
       </c>
       <c r="O13">
-        <v>0.03200908389421987</v>
+        <v>0.036024256573886</v>
       </c>
       <c r="P13">
-        <v>0.03200908389421987</v>
+        <v>0.03602425657388601</v>
       </c>
       <c r="Q13">
-        <v>18.85098263260388</v>
+        <v>22.733157836173</v>
       </c>
       <c r="R13">
-        <v>18.85098263260388</v>
+        <v>204.598420525557</v>
       </c>
       <c r="S13">
-        <v>0.0007981099603783395</v>
+        <v>0.0008577198424501349</v>
       </c>
       <c r="T13">
-        <v>0.0007981099603783395</v>
+        <v>0.000857719842450135</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1281,52 +1281,52 @@
         <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>135.384559057878</v>
+        <v>151.0671593333333</v>
       </c>
       <c r="H14">
-        <v>135.384559057878</v>
+        <v>453.201478</v>
       </c>
       <c r="I14">
-        <v>0.2809433924508936</v>
+        <v>0.2958955835892216</v>
       </c>
       <c r="J14">
-        <v>0.2809433924508936</v>
+        <v>0.2958955835892216</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>16.0520702050038</v>
+        <v>17.792572</v>
       </c>
       <c r="N14">
-        <v>16.0520702050038</v>
+        <v>53.377716</v>
       </c>
       <c r="O14">
-        <v>0.3274990921985305</v>
+        <v>0.3427330624192282</v>
       </c>
       <c r="P14">
-        <v>0.3274990921985305</v>
+        <v>0.3427330624192283</v>
       </c>
       <c r="Q14">
-        <v>2173.202446670541</v>
+        <v>2687.873309273805</v>
       </c>
       <c r="R14">
-        <v>2173.202446670541</v>
+        <v>24190.85978346425</v>
       </c>
       <c r="S14">
-        <v>0.09200870598684312</v>
+        <v>0.1014131995198587</v>
       </c>
       <c r="T14">
-        <v>0.09200870598684312</v>
+        <v>0.1014131995198587</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1343,52 +1343,52 @@
         <v>21</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>135.384559057878</v>
+        <v>151.0671593333333</v>
       </c>
       <c r="H15">
-        <v>135.384559057878</v>
+        <v>453.201478</v>
       </c>
       <c r="I15">
-        <v>0.2809433924508936</v>
+        <v>0.2958955835892216</v>
       </c>
       <c r="J15">
-        <v>0.2809433924508936</v>
+        <v>0.2958955835892216</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>13.6330267067207</v>
+        <v>13.865696</v>
       </c>
       <c r="N15">
-        <v>13.6330267067207</v>
+        <v>41.597088</v>
       </c>
       <c r="O15">
-        <v>0.2781450500370705</v>
+        <v>0.2670908091676708</v>
       </c>
       <c r="P15">
-        <v>0.2781450500370705</v>
+        <v>0.2670908091676709</v>
       </c>
       <c r="Q15">
-        <v>1845.701309313657</v>
+        <v>2094.651306899563</v>
       </c>
       <c r="R15">
-        <v>1845.701309313657</v>
+        <v>18851.86176209606</v>
       </c>
       <c r="S15">
-        <v>0.07814301395083813</v>
+        <v>0.07903099084998538</v>
       </c>
       <c r="T15">
-        <v>0.07814301395083813</v>
+        <v>0.0790309908499854</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1405,52 +1405,52 @@
         <v>22</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>135.384559057878</v>
+        <v>151.0671593333333</v>
       </c>
       <c r="H16">
-        <v>135.384559057878</v>
+        <v>453.201478</v>
       </c>
       <c r="I16">
-        <v>0.2809433924508936</v>
+        <v>0.2958955835892216</v>
       </c>
       <c r="J16">
-        <v>0.2809433924508936</v>
+        <v>0.2958955835892216</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>6.44220840310087</v>
+        <v>6.60203</v>
       </c>
       <c r="N16">
-        <v>6.44220840310087</v>
+        <v>19.80609</v>
       </c>
       <c r="O16">
-        <v>0.1314358445250009</v>
+        <v>0.1271729551007925</v>
       </c>
       <c r="P16">
-        <v>0.1314358445250009</v>
+        <v>0.1271729551007925</v>
       </c>
       <c r="Q16">
-        <v>872.1755440127677</v>
+        <v>997.3499179334467</v>
       </c>
       <c r="R16">
-        <v>872.1755440127677</v>
+        <v>8976.14926140102</v>
       </c>
       <c r="S16">
-        <v>0.03692603205050197</v>
+        <v>0.03762991576631487</v>
       </c>
       <c r="T16">
-        <v>0.03692603205050197</v>
+        <v>0.03762991576631487</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1467,52 +1467,52 @@
         <v>23</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>135.384559057878</v>
+        <v>151.0671593333333</v>
       </c>
       <c r="H17">
-        <v>135.384559057878</v>
+        <v>453.201478</v>
       </c>
       <c r="I17">
-        <v>0.2809433924508936</v>
+        <v>0.2958955835892216</v>
       </c>
       <c r="J17">
-        <v>0.2809433924508936</v>
+        <v>0.2958955835892216</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>9.45329387101008</v>
+        <v>9.866406666666666</v>
       </c>
       <c r="N17">
-        <v>9.45329387101008</v>
+        <v>29.59922</v>
       </c>
       <c r="O17">
-        <v>0.1928689023598125</v>
+        <v>0.190053679251103</v>
       </c>
       <c r="P17">
-        <v>0.1928689023598125</v>
+        <v>0.190053679251103</v>
       </c>
       <c r="Q17">
-        <v>1279.83002237124</v>
+        <v>1490.490027960795</v>
       </c>
       <c r="R17">
-        <v>1279.83002237124</v>
+        <v>13414.41025164716</v>
       </c>
       <c r="S17">
-        <v>0.05418524372724586</v>
+        <v>0.05623604433528386</v>
       </c>
       <c r="T17">
-        <v>0.05418524372724586</v>
+        <v>0.05623604433528388</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1529,52 +1529,52 @@
         <v>24</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F18">
         <v>1</v>
       </c>
       <c r="G18">
-        <v>135.384559057878</v>
+        <v>151.0671593333333</v>
       </c>
       <c r="H18">
-        <v>135.384559057878</v>
+        <v>453.201478</v>
       </c>
       <c r="I18">
-        <v>0.2809433924508936</v>
+        <v>0.2958955835892216</v>
       </c>
       <c r="J18">
-        <v>0.2809433924508936</v>
+        <v>0.2958955835892216</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L18">
         <v>1</v>
       </c>
       <c r="M18">
-        <v>1.86459536058671</v>
+        <v>1.916929</v>
       </c>
       <c r="N18">
-        <v>1.86459536058671</v>
+        <v>5.750787</v>
       </c>
       <c r="O18">
-        <v>0.03804202698536568</v>
+        <v>0.03692523748731935</v>
       </c>
       <c r="P18">
-        <v>0.03804202698536568</v>
+        <v>0.03692523748731937</v>
       </c>
       <c r="Q18">
-        <v>252.4374207143968</v>
+        <v>289.5850186736873</v>
       </c>
       <c r="R18">
-        <v>252.4374207143968</v>
+        <v>2606.265168063186</v>
       </c>
       <c r="S18">
-        <v>0.01068765611697707</v>
+        <v>0.01092601469548096</v>
       </c>
       <c r="T18">
-        <v>0.01068765611697707</v>
+        <v>0.01092601469548097</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1591,52 +1591,52 @@
         <v>25</v>
       </c>
       <c r="E19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F19">
         <v>1</v>
       </c>
       <c r="G19">
-        <v>135.384559057878</v>
+        <v>151.0671593333333</v>
       </c>
       <c r="H19">
-        <v>135.384559057878</v>
+        <v>453.201478</v>
       </c>
       <c r="I19">
-        <v>0.2809433924508936</v>
+        <v>0.2958955835892216</v>
       </c>
       <c r="J19">
-        <v>0.2809433924508936</v>
+        <v>0.2958955835892216</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L19">
         <v>1</v>
       </c>
       <c r="M19">
-        <v>1.5688961408064</v>
+        <v>1.870155666666667</v>
       </c>
       <c r="N19">
-        <v>1.5688961408064</v>
+        <v>5.610467</v>
       </c>
       <c r="O19">
-        <v>0.03200908389421987</v>
+        <v>0.036024256573886</v>
       </c>
       <c r="P19">
-        <v>0.03200908389421987</v>
+        <v>0.03602425657388601</v>
       </c>
       <c r="Q19">
-        <v>212.4043122306809</v>
+        <v>282.5191040744696</v>
       </c>
       <c r="R19">
-        <v>212.4043122306809</v>
+        <v>2542.671936670226</v>
       </c>
       <c r="S19">
-        <v>0.008992740618487387</v>
+        <v>0.01065941842229785</v>
       </c>
       <c r="T19">
-        <v>0.008992740618487387</v>
+        <v>0.01065941842229785</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1653,52 +1653,52 @@
         <v>20</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F20">
         <v>1</v>
       </c>
       <c r="G20">
-        <v>160.10829669583</v>
+        <v>162.458898</v>
       </c>
       <c r="H20">
-        <v>160.10829669583</v>
+        <v>487.376694</v>
       </c>
       <c r="I20">
-        <v>0.3322488793868345</v>
+        <v>0.3182086076491469</v>
       </c>
       <c r="J20">
-        <v>0.3322488793868345</v>
+        <v>0.318208607649147</v>
       </c>
       <c r="K20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L20">
         <v>1</v>
       </c>
       <c r="M20">
-        <v>16.0520702050038</v>
+        <v>17.792572</v>
       </c>
       <c r="N20">
-        <v>16.0520702050038</v>
+        <v>53.377716</v>
       </c>
       <c r="O20">
-        <v>0.3274990921985305</v>
+        <v>0.3427330624192282</v>
       </c>
       <c r="P20">
-        <v>0.3274990921985305</v>
+        <v>0.3427330624192283</v>
       </c>
       <c r="Q20">
-        <v>2570.069618965041</v>
+        <v>2890.561639705656</v>
       </c>
       <c r="R20">
-        <v>2570.069618965041</v>
+        <v>26015.05475735091</v>
       </c>
       <c r="S20">
-        <v>0.1088112063831673</v>
+        <v>0.1090606105877508</v>
       </c>
       <c r="T20">
-        <v>0.1088112063831673</v>
+        <v>0.1090606105877508</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1715,52 +1715,52 @@
         <v>21</v>
       </c>
       <c r="E21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F21">
         <v>1</v>
       </c>
       <c r="G21">
-        <v>160.10829669583</v>
+        <v>162.458898</v>
       </c>
       <c r="H21">
-        <v>160.10829669583</v>
+        <v>487.376694</v>
       </c>
       <c r="I21">
-        <v>0.3322488793868345</v>
+        <v>0.3182086076491469</v>
       </c>
       <c r="J21">
-        <v>0.3322488793868345</v>
+        <v>0.318208607649147</v>
       </c>
       <c r="K21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L21">
         <v>1</v>
       </c>
       <c r="M21">
-        <v>13.6330267067207</v>
+        <v>13.865696</v>
       </c>
       <c r="N21">
-        <v>13.6330267067207</v>
+        <v>41.597088</v>
       </c>
       <c r="O21">
-        <v>0.2781450500370705</v>
+        <v>0.2670908091676708</v>
       </c>
       <c r="P21">
-        <v>0.2781450500370705</v>
+        <v>0.2670908091676709</v>
       </c>
       <c r="Q21">
-        <v>2182.760684821812</v>
+        <v>2252.605692163008</v>
       </c>
       <c r="R21">
-        <v>2182.760684821812</v>
+        <v>20273.45122946707</v>
       </c>
       <c r="S21">
-        <v>0.09241338118181168</v>
+        <v>0.08499059450112853</v>
       </c>
       <c r="T21">
-        <v>0.09241338118181168</v>
+        <v>0.08499059450112857</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1777,52 +1777,52 @@
         <v>22</v>
       </c>
       <c r="E22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F22">
         <v>1</v>
       </c>
       <c r="G22">
-        <v>160.10829669583</v>
+        <v>162.458898</v>
       </c>
       <c r="H22">
-        <v>160.10829669583</v>
+        <v>487.376694</v>
       </c>
       <c r="I22">
-        <v>0.3322488793868345</v>
+        <v>0.3182086076491469</v>
       </c>
       <c r="J22">
-        <v>0.3322488793868345</v>
+        <v>0.318208607649147</v>
       </c>
       <c r="K22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L22">
         <v>1</v>
       </c>
       <c r="M22">
-        <v>6.44220840310087</v>
+        <v>6.60203</v>
       </c>
       <c r="N22">
-        <v>6.44220840310087</v>
+        <v>19.80609</v>
       </c>
       <c r="O22">
-        <v>0.1314358445250009</v>
+        <v>0.1271729551007925</v>
       </c>
       <c r="P22">
-        <v>0.1314358445250009</v>
+        <v>0.1271729551007925</v>
       </c>
       <c r="Q22">
-        <v>1031.451014380043</v>
+        <v>1072.55851836294</v>
       </c>
       <c r="R22">
-        <v>1031.451014380043</v>
+        <v>9653.026665266461</v>
       </c>
       <c r="S22">
-        <v>0.04366941205469376</v>
+        <v>0.04046752897325065</v>
       </c>
       <c r="T22">
-        <v>0.04366941205469376</v>
+        <v>0.04046752897325066</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1839,52 +1839,52 @@
         <v>23</v>
       </c>
       <c r="E23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F23">
         <v>1</v>
       </c>
       <c r="G23">
-        <v>160.10829669583</v>
+        <v>162.458898</v>
       </c>
       <c r="H23">
-        <v>160.10829669583</v>
+        <v>487.376694</v>
       </c>
       <c r="I23">
-        <v>0.3322488793868345</v>
+        <v>0.3182086076491469</v>
       </c>
       <c r="J23">
-        <v>0.3322488793868345</v>
+        <v>0.318208607649147</v>
       </c>
       <c r="K23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L23">
         <v>1</v>
       </c>
       <c r="M23">
-        <v>9.45329387101008</v>
+        <v>9.866406666666666</v>
       </c>
       <c r="N23">
-        <v>9.45329387101008</v>
+        <v>29.59922</v>
       </c>
       <c r="O23">
-        <v>0.1928689023598125</v>
+        <v>0.190053679251103</v>
       </c>
       <c r="P23">
-        <v>0.1928689023598125</v>
+        <v>0.190053679251103</v>
       </c>
       <c r="Q23">
-        <v>1513.550779852553</v>
+        <v>1602.88555428652</v>
       </c>
       <c r="R23">
-        <v>1513.550779852553</v>
+        <v>14425.96998857868</v>
       </c>
       <c r="S23">
-        <v>0.06408047667761649</v>
+        <v>0.06047671665309105</v>
       </c>
       <c r="T23">
-        <v>0.06408047667761649</v>
+        <v>0.06047671665309107</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1901,52 +1901,52 @@
         <v>24</v>
       </c>
       <c r="E24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F24">
         <v>1</v>
       </c>
       <c r="G24">
-        <v>160.10829669583</v>
+        <v>162.458898</v>
       </c>
       <c r="H24">
-        <v>160.10829669583</v>
+        <v>487.376694</v>
       </c>
       <c r="I24">
-        <v>0.3322488793868345</v>
+        <v>0.3182086076491469</v>
       </c>
       <c r="J24">
-        <v>0.3322488793868345</v>
+        <v>0.318208607649147</v>
       </c>
       <c r="K24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L24">
         <v>1</v>
       </c>
       <c r="M24">
-        <v>1.86459536058671</v>
+        <v>1.916929</v>
       </c>
       <c r="N24">
-        <v>1.86459536058671</v>
+        <v>5.750787</v>
       </c>
       <c r="O24">
-        <v>0.03804202698536568</v>
+        <v>0.03692523748731935</v>
       </c>
       <c r="P24">
-        <v>0.03804202698536568</v>
+        <v>0.03692523748731937</v>
       </c>
       <c r="Q24">
-        <v>298.5371872104851</v>
+        <v>311.422172884242</v>
       </c>
       <c r="R24">
-        <v>298.5371872104851</v>
+        <v>2802.799555958178</v>
       </c>
       <c r="S24">
-        <v>0.01263942083549146</v>
+        <v>0.01174992840795398</v>
       </c>
       <c r="T24">
-        <v>0.01263942083549146</v>
+        <v>0.01174992840795398</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1963,52 +1963,52 @@
         <v>25</v>
       </c>
       <c r="E25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F25">
         <v>1</v>
       </c>
       <c r="G25">
-        <v>160.10829669583</v>
+        <v>162.458898</v>
       </c>
       <c r="H25">
-        <v>160.10829669583</v>
+        <v>487.376694</v>
       </c>
       <c r="I25">
-        <v>0.3322488793868345</v>
+        <v>0.3182086076491469</v>
       </c>
       <c r="J25">
-        <v>0.3322488793868345</v>
+        <v>0.318208607649147</v>
       </c>
       <c r="K25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L25">
         <v>1</v>
       </c>
       <c r="M25">
-        <v>1.5688961408064</v>
+        <v>1.870155666666667</v>
       </c>
       <c r="N25">
-        <v>1.5688961408064</v>
+        <v>5.610467</v>
       </c>
       <c r="O25">
-        <v>0.03200908389421987</v>
+        <v>0.036024256573886</v>
       </c>
       <c r="P25">
-        <v>0.03200908389421987</v>
+        <v>0.03602425657388601</v>
       </c>
       <c r="Q25">
-        <v>251.1932887971738</v>
+        <v>303.823428695122</v>
       </c>
       <c r="R25">
-        <v>251.1932887971738</v>
+        <v>2734.410858256098</v>
       </c>
       <c r="S25">
-        <v>0.01063498225405372</v>
+        <v>0.01146322852597189</v>
       </c>
       <c r="T25">
-        <v>0.01063498225405372</v>
+        <v>0.0114632285259719</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2025,52 +2025,52 @@
         <v>20</v>
       </c>
       <c r="E26">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F26">
         <v>1</v>
       </c>
       <c r="G26">
-        <v>138.08143593009</v>
+        <v>142.5917893333333</v>
       </c>
       <c r="H26">
-        <v>138.08143593009</v>
+        <v>427.775368</v>
       </c>
       <c r="I26">
-        <v>0.2865398189767405</v>
+        <v>0.2792948573734662</v>
       </c>
       <c r="J26">
-        <v>0.2865398189767405</v>
+        <v>0.2792948573734662</v>
       </c>
       <c r="K26">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L26">
         <v>1</v>
       </c>
       <c r="M26">
-        <v>16.0520702050038</v>
+        <v>17.792572</v>
       </c>
       <c r="N26">
-        <v>16.0520702050038</v>
+        <v>53.377716</v>
       </c>
       <c r="O26">
-        <v>0.3274990921985305</v>
+        <v>0.3427330624192282</v>
       </c>
       <c r="P26">
-        <v>0.3274990921985305</v>
+        <v>0.3427330624192283</v>
       </c>
       <c r="Q26">
-        <v>2216.492903557539</v>
+        <v>2537.074678322165</v>
       </c>
       <c r="R26">
-        <v>2216.492903557539</v>
+        <v>22833.67210489949</v>
       </c>
       <c r="S26">
-        <v>0.09384153059361376</v>
+        <v>0.09572358178554963</v>
       </c>
       <c r="T26">
-        <v>0.09384153059361376</v>
+        <v>0.09572358178554964</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2087,52 +2087,52 @@
         <v>21</v>
       </c>
       <c r="E27">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F27">
         <v>1</v>
       </c>
       <c r="G27">
-        <v>138.08143593009</v>
+        <v>142.5917893333333</v>
       </c>
       <c r="H27">
-        <v>138.08143593009</v>
+        <v>427.775368</v>
       </c>
       <c r="I27">
-        <v>0.2865398189767405</v>
+        <v>0.2792948573734662</v>
       </c>
       <c r="J27">
-        <v>0.2865398189767405</v>
+        <v>0.2792948573734662</v>
       </c>
       <c r="K27">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L27">
         <v>1</v>
       </c>
       <c r="M27">
-        <v>13.6330267067207</v>
+        <v>13.865696</v>
       </c>
       <c r="N27">
-        <v>13.6330267067207</v>
+        <v>41.597088</v>
       </c>
       <c r="O27">
-        <v>0.2781450500370705</v>
+        <v>0.2670908091676708</v>
       </c>
       <c r="P27">
-        <v>0.2781450500370705</v>
+        <v>0.2670908091676709</v>
       </c>
       <c r="Q27">
-        <v>1882.46790373726</v>
+        <v>1977.134402992043</v>
       </c>
       <c r="R27">
-        <v>1882.46790373726</v>
+        <v>17794.20962692838</v>
       </c>
       <c r="S27">
-        <v>0.07969963228689861</v>
+        <v>0.07459708945224829</v>
       </c>
       <c r="T27">
-        <v>0.07969963228689861</v>
+        <v>0.0745970894522483</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2149,52 +2149,52 @@
         <v>22</v>
       </c>
       <c r="E28">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F28">
         <v>1</v>
       </c>
       <c r="G28">
-        <v>138.08143593009</v>
+        <v>142.5917893333333</v>
       </c>
       <c r="H28">
-        <v>138.08143593009</v>
+        <v>427.775368</v>
       </c>
       <c r="I28">
-        <v>0.2865398189767405</v>
+        <v>0.2792948573734662</v>
       </c>
       <c r="J28">
-        <v>0.2865398189767405</v>
+        <v>0.2792948573734662</v>
       </c>
       <c r="K28">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L28">
         <v>1</v>
       </c>
       <c r="M28">
-        <v>6.44220840310087</v>
+        <v>6.60203</v>
       </c>
       <c r="N28">
-        <v>6.44220840310087</v>
+        <v>19.80609</v>
       </c>
       <c r="O28">
-        <v>0.1314358445250009</v>
+        <v>0.1271729551007925</v>
       </c>
       <c r="P28">
-        <v>0.1314358445250009</v>
+        <v>0.1271729551007925</v>
       </c>
       <c r="Q28">
-        <v>889.5493868610603</v>
+        <v>941.3952709323468</v>
       </c>
       <c r="R28">
-        <v>889.5493868610603</v>
+        <v>8472.557438391121</v>
       </c>
       <c r="S28">
-        <v>0.03766160309724877</v>
+        <v>0.03551875235663805</v>
       </c>
       <c r="T28">
-        <v>0.03766160309724877</v>
+        <v>0.03551875235663805</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2211,52 +2211,52 @@
         <v>23</v>
       </c>
       <c r="E29">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F29">
         <v>1</v>
       </c>
       <c r="G29">
-        <v>138.08143593009</v>
+        <v>142.5917893333333</v>
       </c>
       <c r="H29">
-        <v>138.08143593009</v>
+        <v>427.775368</v>
       </c>
       <c r="I29">
-        <v>0.2865398189767405</v>
+        <v>0.2792948573734662</v>
       </c>
       <c r="J29">
-        <v>0.2865398189767405</v>
+        <v>0.2792948573734662</v>
       </c>
       <c r="K29">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L29">
         <v>1</v>
       </c>
       <c r="M29">
-        <v>9.45329387101008</v>
+        <v>9.866406666666666</v>
       </c>
       <c r="N29">
-        <v>9.45329387101008</v>
+        <v>29.59922</v>
       </c>
       <c r="O29">
-        <v>0.1928689023598125</v>
+        <v>0.190053679251103</v>
       </c>
       <c r="P29">
-        <v>0.1928689023598125</v>
+        <v>0.190053679251103</v>
       </c>
       <c r="Q29">
-        <v>1305.324391978191</v>
+        <v>1406.868580890329</v>
       </c>
       <c r="R29">
-        <v>1305.324391978191</v>
+        <v>12661.81722801296</v>
       </c>
       <c r="S29">
-        <v>0.0552646203684233</v>
+        <v>0.05308101523973929</v>
       </c>
       <c r="T29">
-        <v>0.0552646203684233</v>
+        <v>0.05308101523973931</v>
       </c>
     </row>
     <row r="30" spans="1:20">
@@ -2273,52 +2273,52 @@
         <v>24</v>
       </c>
       <c r="E30">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F30">
         <v>1</v>
       </c>
       <c r="G30">
-        <v>138.08143593009</v>
+        <v>142.5917893333333</v>
       </c>
       <c r="H30">
-        <v>138.08143593009</v>
+        <v>427.775368</v>
       </c>
       <c r="I30">
-        <v>0.2865398189767405</v>
+        <v>0.2792948573734662</v>
       </c>
       <c r="J30">
-        <v>0.2865398189767405</v>
+        <v>0.2792948573734662</v>
       </c>
       <c r="K30">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L30">
         <v>1</v>
       </c>
       <c r="M30">
-        <v>1.86459536058671</v>
+        <v>1.916929</v>
       </c>
       <c r="N30">
-        <v>1.86459536058671</v>
+        <v>5.750787</v>
       </c>
       <c r="O30">
-        <v>0.03804202698536568</v>
+        <v>0.03692523748731935</v>
       </c>
       <c r="P30">
-        <v>0.03804202698536568</v>
+        <v>0.03692523748731937</v>
       </c>
       <c r="Q30">
-        <v>257.4660048183969</v>
+        <v>273.3383361349573</v>
       </c>
       <c r="R30">
-        <v>257.4660048183969</v>
+        <v>2460.045025214616</v>
       </c>
       <c r="S30">
-        <v>0.01090055552589496</v>
+        <v>0.01031302893750222</v>
       </c>
       <c r="T30">
-        <v>0.01090055552589496</v>
+        <v>0.01031302893750223</v>
       </c>
     </row>
     <row r="31" spans="1:20">
@@ -2335,52 +2335,52 @@
         <v>25</v>
       </c>
       <c r="E31">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F31">
         <v>1</v>
       </c>
       <c r="G31">
-        <v>138.08143593009</v>
+        <v>142.5917893333333</v>
       </c>
       <c r="H31">
-        <v>138.08143593009</v>
+        <v>427.775368</v>
       </c>
       <c r="I31">
-        <v>0.2865398189767405</v>
+        <v>0.2792948573734662</v>
       </c>
       <c r="J31">
-        <v>0.2865398189767405</v>
+        <v>0.2792948573734662</v>
       </c>
       <c r="K31">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L31">
         <v>1</v>
       </c>
       <c r="M31">
-        <v>1.5688961408064</v>
+        <v>1.870155666666667</v>
       </c>
       <c r="N31">
-        <v>1.5688961408064</v>
+        <v>5.610467</v>
       </c>
       <c r="O31">
-        <v>0.03200908389421987</v>
+        <v>0.036024256573886</v>
       </c>
       <c r="P31">
-        <v>0.03200908389421987</v>
+        <v>0.03602425657388601</v>
       </c>
       <c r="Q31">
-        <v>216.6354319477244</v>
+        <v>266.6688428418729</v>
       </c>
       <c r="R31">
-        <v>216.6354319477244</v>
+        <v>2400.019585576856</v>
       </c>
       <c r="S31">
-        <v>0.009171877104661059</v>
+        <v>0.01006138960178864</v>
       </c>
       <c r="T31">
-        <v>0.009171877104661059</v>
+        <v>0.01006138960178864</v>
       </c>
     </row>
     <row r="32" spans="1:20">
@@ -2397,52 +2397,52 @@
         <v>20</v>
       </c>
       <c r="E32">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F32">
         <v>1</v>
       </c>
       <c r="G32">
-        <v>9.30358382520104</v>
+        <v>9.743353333333333</v>
       </c>
       <c r="H32">
-        <v>9.30358382520104</v>
+        <v>29.23006</v>
       </c>
       <c r="I32">
-        <v>0.01930634054571784</v>
+        <v>0.01908432801282251</v>
       </c>
       <c r="J32">
-        <v>0.01930634054571784</v>
+        <v>0.01908432801282251</v>
       </c>
       <c r="K32">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L32">
         <v>1</v>
       </c>
       <c r="M32">
-        <v>16.0520702050038</v>
+        <v>17.792572</v>
       </c>
       <c r="N32">
-        <v>16.0520702050038</v>
+        <v>53.377716</v>
       </c>
       <c r="O32">
-        <v>0.3274990921985305</v>
+        <v>0.3427330624192282</v>
       </c>
       <c r="P32">
-        <v>0.3274990921985305</v>
+        <v>0.3427330624192283</v>
       </c>
       <c r="Q32">
-        <v>149.3417807202649</v>
+        <v>173.3593157047733</v>
       </c>
       <c r="R32">
-        <v>149.3417807202649</v>
+        <v>1560.23384134296</v>
       </c>
       <c r="S32">
-        <v>0.006322809002398273</v>
+        <v>0.006540830184047722</v>
       </c>
       <c r="T32">
-        <v>0.006322809002398273</v>
+        <v>0.006540830184047725</v>
       </c>
     </row>
     <row r="33" spans="1:20">
@@ -2459,52 +2459,52 @@
         <v>21</v>
       </c>
       <c r="E33">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F33">
         <v>1</v>
       </c>
       <c r="G33">
-        <v>9.30358382520104</v>
+        <v>9.743353333333333</v>
       </c>
       <c r="H33">
-        <v>9.30358382520104</v>
+        <v>29.23006</v>
       </c>
       <c r="I33">
-        <v>0.01930634054571784</v>
+        <v>0.01908432801282251</v>
       </c>
       <c r="J33">
-        <v>0.01930634054571784</v>
+        <v>0.01908432801282251</v>
       </c>
       <c r="K33">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L33">
         <v>1</v>
       </c>
       <c r="M33">
-        <v>13.6330267067207</v>
+        <v>13.865696</v>
       </c>
       <c r="N33">
-        <v>13.6330267067207</v>
+        <v>41.597088</v>
       </c>
       <c r="O33">
-        <v>0.2781450500370705</v>
+        <v>0.2670908091676708</v>
       </c>
       <c r="P33">
-        <v>0.2781450500370705</v>
+        <v>0.2670908091676709</v>
       </c>
       <c r="Q33">
-        <v>126.8360067571805</v>
+        <v>135.0983753405867</v>
       </c>
       <c r="R33">
-        <v>126.8360067571805</v>
+        <v>1215.88537806528</v>
       </c>
       <c r="S33">
-        <v>0.005369963057121411</v>
+        <v>0.00509724861136601</v>
       </c>
       <c r="T33">
-        <v>0.005369963057121411</v>
+        <v>0.005097248611366013</v>
       </c>
     </row>
     <row r="34" spans="1:20">
@@ -2521,52 +2521,52 @@
         <v>22</v>
       </c>
       <c r="E34">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F34">
         <v>1</v>
       </c>
       <c r="G34">
-        <v>9.30358382520104</v>
+        <v>9.743353333333333</v>
       </c>
       <c r="H34">
-        <v>9.30358382520104</v>
+        <v>29.23006</v>
       </c>
       <c r="I34">
-        <v>0.01930634054571784</v>
+        <v>0.01908432801282251</v>
       </c>
       <c r="J34">
-        <v>0.01930634054571784</v>
+        <v>0.01908432801282251</v>
       </c>
       <c r="K34">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L34">
         <v>1</v>
       </c>
       <c r="M34">
-        <v>6.44220840310087</v>
+        <v>6.60203</v>
       </c>
       <c r="N34">
-        <v>6.44220840310087</v>
+        <v>19.80609</v>
       </c>
       <c r="O34">
-        <v>0.1314358445250009</v>
+        <v>0.1271729551007925</v>
       </c>
       <c r="P34">
-        <v>0.1314358445250009</v>
+        <v>0.1271729551007925</v>
       </c>
       <c r="Q34">
-        <v>59.93562589766347</v>
+        <v>64.32591100726667</v>
       </c>
       <c r="R34">
-        <v>59.93562589766347</v>
+        <v>578.9331990654001</v>
       </c>
       <c r="S34">
-        <v>0.002537545174313691</v>
+        <v>0.002427010389503473</v>
       </c>
       <c r="T34">
-        <v>0.002537545174313691</v>
+        <v>0.002427010389503474</v>
       </c>
     </row>
     <row r="35" spans="1:20">
@@ -2583,52 +2583,52 @@
         <v>23</v>
       </c>
       <c r="E35">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F35">
         <v>1</v>
       </c>
       <c r="G35">
-        <v>9.30358382520104</v>
+        <v>9.743353333333333</v>
       </c>
       <c r="H35">
-        <v>9.30358382520104</v>
+        <v>29.23006</v>
       </c>
       <c r="I35">
-        <v>0.01930634054571784</v>
+        <v>0.01908432801282251</v>
       </c>
       <c r="J35">
-        <v>0.01930634054571784</v>
+        <v>0.01908432801282251</v>
       </c>
       <c r="K35">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L35">
         <v>1</v>
       </c>
       <c r="M35">
-        <v>9.45329387101008</v>
+        <v>9.866406666666666</v>
       </c>
       <c r="N35">
-        <v>9.45329387101008</v>
+        <v>29.59922</v>
       </c>
       <c r="O35">
-        <v>0.1928689023598125</v>
+        <v>0.190053679251103</v>
       </c>
       <c r="P35">
-        <v>0.1928689023598125</v>
+        <v>0.190053679251103</v>
       </c>
       <c r="Q35">
-        <v>87.94951195320151</v>
+        <v>96.13188628368889</v>
       </c>
       <c r="R35">
-        <v>87.94951195320151</v>
+        <v>865.1869765532</v>
       </c>
       <c r="S35">
-        <v>0.003723592709637342</v>
+        <v>0.003627046754871808</v>
       </c>
       <c r="T35">
-        <v>0.003723592709637342</v>
+        <v>0.00362704675487181</v>
       </c>
     </row>
     <row r="36" spans="1:20">
@@ -2645,52 +2645,52 @@
         <v>24</v>
       </c>
       <c r="E36">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F36">
         <v>1</v>
       </c>
       <c r="G36">
-        <v>9.30358382520104</v>
+        <v>9.743353333333333</v>
       </c>
       <c r="H36">
-        <v>9.30358382520104</v>
+        <v>29.23006</v>
       </c>
       <c r="I36">
-        <v>0.01930634054571784</v>
+        <v>0.01908432801282251</v>
       </c>
       <c r="J36">
-        <v>0.01930634054571784</v>
+        <v>0.01908432801282251</v>
       </c>
       <c r="K36">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L36">
         <v>1</v>
       </c>
       <c r="M36">
-        <v>1.86459536058671</v>
+        <v>1.916929</v>
       </c>
       <c r="N36">
-        <v>1.86459536058671</v>
+        <v>5.750787</v>
       </c>
       <c r="O36">
-        <v>0.03804202698536568</v>
+        <v>0.03692523748731935</v>
       </c>
       <c r="P36">
-        <v>0.03804202698536568</v>
+        <v>0.03692523748731937</v>
       </c>
       <c r="Q36">
-        <v>17.34741923729942</v>
+        <v>18.67731656191333</v>
       </c>
       <c r="R36">
-        <v>17.34741923729942</v>
+        <v>168.09584905722</v>
       </c>
       <c r="S36">
-        <v>0.0007344523280288576</v>
+        <v>0.0007046933441593725</v>
       </c>
       <c r="T36">
-        <v>0.0007344523280288576</v>
+        <v>0.0007046933441593729</v>
       </c>
     </row>
     <row r="37" spans="1:20">
@@ -2707,52 +2707,52 @@
         <v>25</v>
       </c>
       <c r="E37">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F37">
         <v>1</v>
       </c>
       <c r="G37">
-        <v>9.30358382520104</v>
+        <v>9.743353333333333</v>
       </c>
       <c r="H37">
-        <v>9.30358382520104</v>
+        <v>29.23006</v>
       </c>
       <c r="I37">
-        <v>0.01930634054571784</v>
+        <v>0.01908432801282251</v>
       </c>
       <c r="J37">
-        <v>0.01930634054571784</v>
+        <v>0.01908432801282251</v>
       </c>
       <c r="K37">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L37">
         <v>1</v>
       </c>
       <c r="M37">
-        <v>1.5688961408064</v>
+        <v>1.870155666666667</v>
       </c>
       <c r="N37">
-        <v>1.5688961408064</v>
+        <v>5.610467</v>
       </c>
       <c r="O37">
-        <v>0.03200908389421987</v>
+        <v>0.036024256573886</v>
       </c>
       <c r="P37">
-        <v>0.03200908389421987</v>
+        <v>0.03602425657388601</v>
       </c>
       <c r="Q37">
-        <v>14.59635675902675</v>
+        <v>18.22158744866889</v>
       </c>
       <c r="R37">
-        <v>14.59635675902675</v>
+        <v>163.99428703802</v>
       </c>
       <c r="S37">
-        <v>0.0006179782742182608</v>
+        <v>0.000687498728874118</v>
       </c>
       <c r="T37">
-        <v>0.0006179782742182608</v>
+        <v>0.0006874987288741182</v>
       </c>
     </row>
   </sheetData>
